--- a/dmsan/results/RESULTS_TOPSIS.xlsx
+++ b/dmsan/results/RESULTS_TOPSIS.xlsx
@@ -445,13 +445,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>0.1108623316039231</v>
+        <v>0.889137668396077</v>
       </c>
       <c r="D2">
+        <v>0.3268096415522836</v>
+      </c>
+      <c r="E2">
         <v>0.6731903584477165</v>
-      </c>
-      <c r="E2">
-        <v>0.3268096415522836</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -462,13 +462,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.1739569652645787</v>
       </c>
       <c r="D3">
-        <v>0.6179412663638073</v>
+        <v>0.42128665932963</v>
       </c>
       <c r="E3">
-        <v>0.2631158740604405</v>
+        <v>0.7156052394754749</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -479,13 +479,13 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.4032894770784745</v>
+        <v>0.6702681412954919</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.8033328484168533</v>
       </c>
       <c r="E4">
-        <v>0.09385465034257799</v>
+        <v>0.2335580059493088</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.9523697074025108</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -513,13 +513,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3926014013346157</v>
+        <v>0.6073985986653843</v>
       </c>
       <c r="E6">
-        <v>0.3720393747188723</v>
+        <v>0.6279606252811276</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -530,13 +530,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0.5258542493189475</v>
+        <v>0.682597857405016</v>
       </c>
       <c r="D7">
-        <v>0.7592750916259005</v>
+        <v>0.7972474240278519</v>
       </c>
       <c r="E7">
-        <v>0.1539538788908696</v>
+        <v>0.2422737756273134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -547,13 +547,13 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.5093697533141097</v>
+        <v>0.6875180883654941</v>
       </c>
       <c r="D8">
-        <v>0.7548668673553367</v>
+        <v>0.7637253843241474</v>
       </c>
       <c r="E8">
-        <v>0.1677684496388044</v>
+        <v>0.2687251509939895</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -564,13 +564,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0.5739394718338696</v>
+        <v>0.6186359537253805</v>
       </c>
       <c r="D9">
-        <v>0.7325124145915776</v>
+        <v>0.7255526997905448</v>
       </c>
       <c r="E9">
-        <v>0.1760031839503879</v>
+        <v>0.3100163819947988</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -581,13 +581,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>0.4350867014405914</v>
+        <v>0.6760100084158057</v>
       </c>
       <c r="D10">
-        <v>0.8691106329719475</v>
+        <v>0.8007675067080211</v>
       </c>
       <c r="E10">
-        <v>0.1124507382518813</v>
+        <v>0.2371207849508889</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -598,13 +598,13 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0.5537265071792478</v>
+        <v>0.8361985665374894</v>
       </c>
       <c r="D11">
-        <v>0.8509751868720293</v>
+        <v>0.8995309989365531</v>
       </c>
       <c r="E11">
-        <v>0.09081965925284612</v>
+        <v>0.1203088025558765</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -615,13 +615,13 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>0.6584834330021733</v>
+        <v>0.4889244819024822</v>
       </c>
       <c r="D12">
-        <v>0.5782207208179736</v>
+        <v>0.7040326301430895</v>
       </c>
       <c r="E12">
-        <v>0.2600230058648094</v>
+        <v>0.387963706364472</v>
       </c>
     </row>
   </sheetData>
@@ -659,10 +659,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -676,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -727,13 +727,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -829,10 +829,10 @@
         <v>14</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <v>1</v>

--- a/dmsan/results/RESULTS_TOPSIS.xlsx
+++ b/dmsan/results/RESULTS_TOPSIS.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,17 +557,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1:1:1:1:1</t>
+          <t>1:1:0:0:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.7044399338758009</v>
+        <v>0.327057041308277</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8452837371102903</v>
+        <v>0.4471455284657654</v>
       </c>
       <c r="E7" t="n">
-        <v>0.2059986614015556</v>
+        <v>0.6176457067214309</v>
       </c>
     </row>
     <row r="8">
@@ -576,17 +576,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2:1:1:1:1</t>
+          <t>1:0:1:0:0</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6847734006763868</v>
+        <v>0.6564924691739089</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7933463848063321</v>
+        <v>0.774347377774299</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2427289514420278</v>
+        <v>0.2550408022620198</v>
       </c>
     </row>
     <row r="9">
@@ -595,17 +595,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1:2:1:1:1</t>
+          <t>1:0:0:1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6327738321480649</v>
+        <v>0.9018387085925873</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7511018428776606</v>
+        <v>0.9134003475973576</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2867535749357847</v>
+        <v>0.08659965240264243</v>
       </c>
     </row>
     <row r="10">
@@ -614,17 +614,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1:1:2:1:1</t>
+          <t>1:0:0:0:1</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6858647802505552</v>
+        <v>0.412332622130089</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8192070162563727</v>
+        <v>0.8018208819570303</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2230024046961738</v>
+        <v>0.4091663226595416</v>
       </c>
     </row>
     <row r="11">
@@ -633,17 +633,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1:1:1:2:1</t>
+          <t>0:1:1:0:0</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8467774763936214</v>
+        <v>0.61401283329131</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9244807189826906</v>
+        <v>0.7458790235233494</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1014620831327786</v>
+        <v>0.2848122688729256</v>
       </c>
     </row>
     <row r="12">
@@ -652,17 +652,492 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>0:1:0:1:0</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8389054240169159</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8760397210903049</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1309090068497</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0:1:0:0:1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3783834947648009</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7400113254222977</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.4478073123823333</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0:0:1:1:0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8236534733232829</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8905682568405415</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.1325088459306658</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0:0:1:0:1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.554260318285101</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8280018944181722</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2821816888983922</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0:0:0:1:1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7407164350399135</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9661809258309874</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1489963323330769</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1:1:1:0:0</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6065201185591497</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7283852426029822</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.2985683199204203</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1:1:0:1:0</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8235493512679778</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8550012105736409</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.1506629907611568</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1:1:0:0:1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3879979831173954</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.709422158572065</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4558432354707443</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1:0:1:1:0</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8125858703179381</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8714724381897065</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.1475167894238762</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1:0:1:0:1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5518232762140103</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.8028202238577101</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2938478177589428</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1:0:0:1:1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7347188975355625</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9135822637708947</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1645015941845461</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0:1:1:1:0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.786203547559726</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.8523852490963689</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1671156568982924</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0:1:1:0:1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5332852885301036</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.777706030830298</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.312714407966253</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0:1:0:1:1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7176173118668634</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.8804362666151723</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.1850068300070619</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0:0:1:1:1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7254949419011186</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.8928602713321083</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.1756423962723104</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1:1:1:1:0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.7783518345806846</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.8395901551409241</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1777834650979192</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1:1:1:0:1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5318051602906206</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.7616511890254406</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.321498054881141</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1:1:0:1:1</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7127640003839543</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.861194220909103</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.196045595496766</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1:0:1:1:1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7211519319549564</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.875206247533843</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.1849882028186469</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0:1:1:1:1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.7081341094370603</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.8573566523987205</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.1984458056520093</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1:1:1:1:1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7044399338758009</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.8452837371102903</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.2059986614015556</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2:1:1:1:1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.6942162295401137</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.8163314969376779</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.2257203401502568</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1:2:1:1:1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.6643583244502912</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.7886332671414569</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.2524800562566414</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1:1:2:1:1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6918234783508135</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.8265182761854366</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.2181762083280478</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1:1:1:2:1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.810487320705216</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9040435352394551</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1284186884032147</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>1:1:1:1:2</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>0.5614877977751607</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.8667300084197961</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.282832682042112</v>
+      <c r="C37" t="n">
+        <v>0.6080657559740738</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.8579030484343374</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.2549593102111604</v>
       </c>
     </row>
   </sheetData>
@@ -676,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -807,17 +1282,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1:1:1:1:1</t>
+          <t>1:1:0:0:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -826,7 +1301,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2:1:1:1:1</t>
+          <t>1:0:1:0:0</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -845,7 +1320,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1:2:1:1:1</t>
+          <t>1:0:0:1:0</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -864,7 +1339,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1:1:2:1:1</t>
+          <t>1:0:0:0:1</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -883,7 +1358,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1:1:1:2:1</t>
+          <t>0:1:1:0:0</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -902,16 +1377,491 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>0:1:0:1:0</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0:1:0:0:1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0:0:1:1:0</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0:0:1:0:1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0:0:0:1:1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1:1:1:0:0</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1:1:0:1:0</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1:1:0:0:1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1:0:1:1:0</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1:0:1:0:1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1:0:0:1:1</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0:1:1:1:0</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0:1:1:0:1</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0:1:0:1:1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0:0:1:1:1</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1:1:1:1:0</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1:1:1:0:1</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1:1:0:1:1</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1:0:1:1:1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0:1:1:1:1</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1:1:1:1:1</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2:1:1:1:1</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>2</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1:2:1:1:1</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1:1:2:1:1</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>2</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1:1:1:2:1</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>1:1:1:1:2</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="n">
         <v>3</v>
       </c>
     </row>

--- a/dmsan/results/RESULTS_TOPSIS.xlsx
+++ b/dmsan/results/RESULTS_TOPSIS.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="perform_score" sheetId="1" r:id="rId1"/>
     <sheet name="ranking" sheetId="2" r:id="rId2"/>
+    <sheet name="weighted_matrix" sheetId="3" r:id="rId3"/>
+    <sheet name="subcriteria_weights" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>weight_scenario</t>
   </si>
@@ -60,6 +62,102 @@
   </si>
   <si>
     <t>1:1:1:1:2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>RR1</t>
+  </si>
+  <si>
+    <t>RR2</t>
+  </si>
+  <si>
+    <t>RR3</t>
+  </si>
+  <si>
+    <t>RR4</t>
+  </si>
+  <si>
+    <t>RR5</t>
+  </si>
+  <si>
+    <t>RR6</t>
+  </si>
+  <si>
+    <t>Env1</t>
+  </si>
+  <si>
+    <t>Env2</t>
+  </si>
+  <si>
+    <t>Env3</t>
+  </si>
+  <si>
+    <t>Econ1</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>S4</t>
+  </si>
+  <si>
+    <t>S5</t>
+  </si>
+  <si>
+    <t>S6</t>
+  </si>
+  <si>
+    <t>S7</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>S9</t>
+  </si>
+  <si>
+    <t>S10</t>
+  </si>
+  <si>
+    <t>S11</t>
+  </si>
+  <si>
+    <t>S12</t>
   </si>
 </sst>
 </file>
@@ -841,4 +939,630 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.007758302676814355</v>
+      </c>
+      <c r="C2">
+        <v>0.003423178507628671</v>
+      </c>
+      <c r="D2">
+        <v>0.006177061155800859</v>
+      </c>
+      <c r="E2">
+        <v>0.006593989987861297</v>
+      </c>
+      <c r="F2">
+        <v>0.01530028396061252</v>
+      </c>
+      <c r="G2">
+        <v>0.006294786080282672</v>
+      </c>
+      <c r="H2">
+        <v>0.01081949738451289</v>
+      </c>
+      <c r="I2">
+        <v>0.01016056725979955</v>
+      </c>
+      <c r="J2">
+        <v>0.01250286439751823</v>
+      </c>
+      <c r="K2">
+        <v>0.009159934004946583</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0.01216314397631497</v>
+      </c>
+      <c r="N2">
+        <v>0.01266322577693975</v>
+      </c>
+      <c r="O2">
+        <v>0.01726223999591533</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.008384457849673673</v>
+      </c>
+      <c r="R2">
+        <v>-0.0203206576661301</v>
+      </c>
+      <c r="S2">
+        <v>-0.02694757364424329</v>
+      </c>
+      <c r="T2">
+        <v>-0.007832315352029558</v>
+      </c>
+      <c r="U2">
+        <v>0.0344740070043824</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>2.326288017716715E-10</v>
+      </c>
+      <c r="Y2">
+        <v>0.05432623196840891</v>
+      </c>
+      <c r="Z2">
+        <v>0.08206722772705641</v>
+      </c>
+      <c r="AA2">
+        <v>0.02316478314513169</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.007758302676814355</v>
+      </c>
+      <c r="C3">
+        <v>0.003423178507628671</v>
+      </c>
+      <c r="D3">
+        <v>0.004941648924640688</v>
+      </c>
+      <c r="E3">
+        <v>0.006593989987861297</v>
+      </c>
+      <c r="F3">
+        <v>0.00612011358424501</v>
+      </c>
+      <c r="G3">
+        <v>0.004196524053521781</v>
+      </c>
+      <c r="H3">
+        <v>0.01081949738451289</v>
+      </c>
+      <c r="I3">
+        <v>0.01016056725979955</v>
+      </c>
+      <c r="J3">
+        <v>0.01250286439751823</v>
+      </c>
+      <c r="K3">
+        <v>0.01831986800989317</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0.01247338634249483</v>
+      </c>
+      <c r="N3">
+        <v>0.02440329802947943</v>
+      </c>
+      <c r="O3">
+        <v>0.01726223999591532</v>
+      </c>
+      <c r="P3">
+        <v>0.003607840919987082</v>
+      </c>
+      <c r="Q3">
+        <v>0.01257668677451051</v>
+      </c>
+      <c r="R3">
+        <v>-0.02420469837565625</v>
+      </c>
+      <c r="S3">
+        <v>-0.02757280645291446</v>
+      </c>
+      <c r="T3">
+        <v>-0.02284360058173001</v>
+      </c>
+      <c r="U3">
+        <v>0.02904303226147757</v>
+      </c>
+      <c r="V3">
+        <v>0.01148287410734649</v>
+      </c>
+      <c r="W3">
+        <v>0.1006868953281394</v>
+      </c>
+      <c r="X3">
+        <v>2.326288017716715E-10</v>
+      </c>
+      <c r="Y3">
+        <v>0.05432623196840891</v>
+      </c>
+      <c r="Z3">
+        <v>0.08206722772705641</v>
+      </c>
+      <c r="AA3">
+        <v>0.02316478314513169</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.003103321070725742</v>
+      </c>
+      <c r="C4">
+        <v>0.003423178507628671</v>
+      </c>
+      <c r="D4">
+        <v>0.006177061155800859</v>
+      </c>
+      <c r="E4">
+        <v>0.007912787985433557</v>
+      </c>
+      <c r="F4">
+        <v>0.01530028396061252</v>
+      </c>
+      <c r="G4">
+        <v>0.006294786080282672</v>
+      </c>
+      <c r="H4">
+        <v>0.01081949738451289</v>
+      </c>
+      <c r="I4">
+        <v>0.005080283629899773</v>
+      </c>
+      <c r="J4">
+        <v>0.01250286439751823</v>
+      </c>
+      <c r="K4">
+        <v>0.009159934004946583</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.02744591987840194</v>
+      </c>
+      <c r="N4">
+        <v>0.01752372512299275</v>
+      </c>
+      <c r="O4">
+        <v>0.02190875518061842</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.008384457849673673</v>
+      </c>
+      <c r="R4">
+        <v>-0.04002753363073289</v>
+      </c>
+      <c r="S4">
+        <v>-0.03104542831075461</v>
+      </c>
+      <c r="T4">
+        <v>0.04320966036303395</v>
+      </c>
+      <c r="U4">
+        <v>0.1430665758244062</v>
+      </c>
+      <c r="V4">
+        <v>0.02296574821469298</v>
+      </c>
+      <c r="W4">
+        <v>0.05034344766406971</v>
+      </c>
+      <c r="X4">
+        <v>3.024174423031729E-08</v>
+      </c>
+      <c r="Y4">
+        <v>0.1086524639368178</v>
+      </c>
+      <c r="Z4">
+        <v>0.08206722772705641</v>
+      </c>
+      <c r="AA4">
+        <v>0.05791195786282921</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AG2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07601553131305615</v>
+      </c>
+      <c r="C2">
+        <v>0.03952746065727109</v>
+      </c>
+      <c r="D2">
+        <v>0.06691024274334824</v>
+      </c>
+      <c r="E2">
+        <v>0.08153353001405869</v>
+      </c>
+      <c r="F2">
+        <v>0.1499115544927614</v>
+      </c>
+      <c r="G2">
+        <v>0.06561147519038889</v>
+      </c>
+      <c r="H2">
+        <v>0.1249327945488994</v>
+      </c>
+      <c r="I2">
+        <v>0.1016056725979955</v>
+      </c>
+      <c r="J2">
+        <v>0.1443706425109708</v>
+      </c>
+      <c r="K2">
+        <v>0.1495810959312499</v>
+      </c>
+      <c r="L2">
+        <v>0.2079577886831643</v>
+      </c>
+      <c r="M2">
+        <v>0.2167236803150616</v>
+      </c>
+      <c r="N2">
+        <v>0.2173536988392221</v>
+      </c>
+      <c r="O2">
+        <v>0.2186792082701592</v>
+      </c>
+      <c r="P2">
+        <v>0.02405227279991388</v>
+      </c>
+      <c r="Q2">
+        <v>0.1152333510924789</v>
+      </c>
+      <c r="R2">
+        <v>0.34</v>
+      </c>
+      <c r="S2">
+        <v>0.33</v>
+      </c>
+      <c r="T2">
+        <v>0.33</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.06419121770274742</v>
+      </c>
+      <c r="W2">
+        <v>0.2814284279964072</v>
+      </c>
+      <c r="X2">
+        <v>7.56088340742484E-08</v>
+      </c>
+      <c r="Y2">
+        <v>0.3326788699266929</v>
+      </c>
+      <c r="Z2">
+        <v>0.3553615201489675</v>
+      </c>
+      <c r="AA2">
+        <v>0.1663394349633465</v>
+      </c>
+      <c r="AB2">
+        <v>7.56088340742484E-08</v>
+      </c>
+      <c r="AC2">
+        <v>7.56088340742484E-08</v>
+      </c>
+      <c r="AD2">
+        <v>7.56088340742484E-08</v>
+      </c>
+      <c r="AE2">
+        <v>7.56088340742484E-08</v>
+      </c>
+      <c r="AF2">
+        <v>7.56088340742484E-08</v>
+      </c>
+      <c r="AG2">
+        <v>7.56088340742484E-08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>